--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Rarres2</t>
   </si>
   <si>
     <t>Ccrl2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H2">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I2">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J2">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.007593666666667</v>
+        <v>4.306835666666667</v>
       </c>
       <c r="N2">
-        <v>6.022781</v>
+        <v>12.920507</v>
       </c>
       <c r="O2">
-        <v>0.03411486246698893</v>
+        <v>0.0474068797554582</v>
       </c>
       <c r="P2">
-        <v>0.03411486246698894</v>
+        <v>0.04740687975545821</v>
       </c>
       <c r="Q2">
-        <v>7.863201003647557</v>
+        <v>6.281627490725</v>
       </c>
       <c r="R2">
-        <v>70.76880903282802</v>
+        <v>56.534647416525</v>
       </c>
       <c r="S2">
-        <v>0.001993200633544634</v>
+        <v>0.001197153239043783</v>
       </c>
       <c r="T2">
-        <v>0.001993200633544634</v>
+        <v>0.001197153239043783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H3">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I3">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J3">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.392315</v>
       </c>
       <c r="O3">
-        <v>0.007886495413950083</v>
+        <v>0.005108569639466994</v>
       </c>
       <c r="P3">
-        <v>0.007886495413950083</v>
+        <v>0.005108569639466995</v>
       </c>
       <c r="Q3">
-        <v>1.817773667246667</v>
+        <v>0.6769087451249999</v>
       </c>
       <c r="R3">
-        <v>16.35996300522</v>
+        <v>6.092178706124999</v>
       </c>
       <c r="S3">
-        <v>0.0004607776939081294</v>
+        <v>0.0001290053410457689</v>
       </c>
       <c r="T3">
-        <v>0.0004607776939081294</v>
+        <v>0.0001290053410457689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H4">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I4">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J4">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.350873333333333</v>
+        <v>1.661774</v>
       </c>
       <c r="N4">
-        <v>7.052619999999999</v>
+        <v>4.985322</v>
       </c>
       <c r="O4">
-        <v>0.03994818362678892</v>
+        <v>0.01829174045540476</v>
       </c>
       <c r="P4">
-        <v>0.03994818362678893</v>
+        <v>0.01829174045540476</v>
       </c>
       <c r="Q4">
-        <v>9.207734543617777</v>
+        <v>2.42373892335</v>
       </c>
       <c r="R4">
-        <v>82.86961089256</v>
+        <v>21.81365031015</v>
       </c>
       <c r="S4">
-        <v>0.002334019226691051</v>
+        <v>0.0004619164232468764</v>
       </c>
       <c r="T4">
-        <v>0.002334019226691051</v>
+        <v>0.0004619164232468766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H5">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I5">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J5">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.02549366666667</v>
+        <v>84.41561133333333</v>
       </c>
       <c r="N5">
-        <v>162.076481</v>
+        <v>253.246834</v>
       </c>
       <c r="O5">
-        <v>0.9180504584922721</v>
+        <v>0.92919281014967</v>
       </c>
       <c r="P5">
-        <v>0.9180504584922721</v>
+        <v>0.9291928101496701</v>
       </c>
       <c r="Q5">
-        <v>211.6032357920476</v>
+        <v>123.12227951995</v>
       </c>
       <c r="R5">
-        <v>1904.429122128428</v>
+        <v>1108.10051567955</v>
       </c>
       <c r="S5">
-        <v>0.053638168914308</v>
+        <v>0.02346465719965038</v>
       </c>
       <c r="T5">
-        <v>0.053638168914308</v>
+        <v>0.02346465719965039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>145.6064</v>
       </c>
       <c r="I6">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J6">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.007593666666667</v>
+        <v>4.306835666666667</v>
       </c>
       <c r="N6">
-        <v>6.022781</v>
+        <v>12.920507</v>
       </c>
       <c r="O6">
-        <v>0.03411486246698893</v>
+        <v>0.0474068797554582</v>
       </c>
       <c r="P6">
-        <v>0.03411486246698894</v>
+        <v>0.04740687975545821</v>
       </c>
       <c r="Q6">
-        <v>97.43949548871112</v>
+        <v>209.0342789383112</v>
       </c>
       <c r="R6">
-        <v>876.9554593984001</v>
+        <v>1881.3085104448</v>
       </c>
       <c r="S6">
-        <v>0.02469941491388507</v>
+        <v>0.03983777523765555</v>
       </c>
       <c r="T6">
-        <v>0.02469941491388507</v>
+        <v>0.03983777523765556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>145.6064</v>
       </c>
       <c r="I7">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J7">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.392315</v>
       </c>
       <c r="O7">
-        <v>0.007886495413950083</v>
+        <v>0.005108569639466994</v>
       </c>
       <c r="P7">
-        <v>0.007886495413950083</v>
+        <v>0.005108569639466995</v>
       </c>
       <c r="Q7">
         <v>22.52555275733334</v>
@@ -883,10 +883,10 @@
         <v>202.729974816</v>
       </c>
       <c r="S7">
-        <v>0.005709881510854519</v>
+        <v>0.004292922253748741</v>
       </c>
       <c r="T7">
-        <v>0.005709881510854519</v>
+        <v>0.004292922253748742</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>145.6064</v>
       </c>
       <c r="I8">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J8">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.350873333333333</v>
+        <v>1.661774</v>
       </c>
       <c r="N8">
-        <v>7.052619999999999</v>
+        <v>4.985322</v>
       </c>
       <c r="O8">
-        <v>0.03994818362678892</v>
+        <v>0.01829174045540476</v>
       </c>
       <c r="P8">
-        <v>0.03994818362678893</v>
+        <v>0.01829174045540476</v>
       </c>
       <c r="Q8">
-        <v>114.1007343075555</v>
+        <v>80.65497658453334</v>
       </c>
       <c r="R8">
-        <v>1026.906608768</v>
+        <v>725.8947892608001</v>
       </c>
       <c r="S8">
-        <v>0.028922782948602</v>
+        <v>0.01537123406406107</v>
       </c>
       <c r="T8">
-        <v>0.028922782948602</v>
+        <v>0.01537123406406107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>145.6064</v>
       </c>
       <c r="I9">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J9">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.02549366666667</v>
+        <v>84.41561133333333</v>
       </c>
       <c r="N9">
-        <v>162.076481</v>
+        <v>253.246834</v>
       </c>
       <c r="O9">
-        <v>0.9180504584922721</v>
+        <v>0.92919281014967</v>
       </c>
       <c r="P9">
-        <v>0.9180504584922721</v>
+        <v>0.9291928101496701</v>
       </c>
       <c r="Q9">
-        <v>2622.152547008712</v>
+        <v>4097.151090015289</v>
       </c>
       <c r="R9">
-        <v>23599.3729230784</v>
+        <v>36874.3598101376</v>
       </c>
       <c r="S9">
-        <v>0.6646753803602373</v>
+        <v>0.7808354929523946</v>
       </c>
       <c r="T9">
-        <v>0.6646753803602373</v>
+        <v>0.7808354929523948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H10">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I10">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J10">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.007593666666667</v>
+        <v>4.306835666666667</v>
       </c>
       <c r="N10">
-        <v>6.022781</v>
+        <v>12.920507</v>
       </c>
       <c r="O10">
-        <v>0.03411486246698893</v>
+        <v>0.0474068797554582</v>
       </c>
       <c r="P10">
-        <v>0.03411486246698894</v>
+        <v>0.04740687975545821</v>
       </c>
       <c r="Q10">
-        <v>29.28085534641245</v>
+        <v>33.21785688025134</v>
       </c>
       <c r="R10">
-        <v>263.527698117712</v>
+        <v>298.960711922262</v>
       </c>
       <c r="S10">
-        <v>0.007422246919559224</v>
+        <v>0.006330662717106767</v>
       </c>
       <c r="T10">
-        <v>0.007422246919559225</v>
+        <v>0.00633066271710677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H11">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I11">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J11">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.392315</v>
       </c>
       <c r="O11">
-        <v>0.007886495413950083</v>
+        <v>0.005108569639466994</v>
       </c>
       <c r="P11">
-        <v>0.007886495413950083</v>
+        <v>0.005108569639466995</v>
       </c>
       <c r="Q11">
-        <v>6.768994939653334</v>
+        <v>3.57955925431</v>
       </c>
       <c r="R11">
-        <v>60.92095445688</v>
+        <v>32.21603328879</v>
       </c>
       <c r="S11">
-        <v>0.001715836209187434</v>
+        <v>0.0006821927855438264</v>
       </c>
       <c r="T11">
-        <v>0.001715836209187434</v>
+        <v>0.0006821927855438266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H12">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I12">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J12">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.350873333333333</v>
+        <v>1.661774</v>
       </c>
       <c r="N12">
-        <v>7.052619999999999</v>
+        <v>4.985322</v>
       </c>
       <c r="O12">
-        <v>0.03994818362678892</v>
+        <v>0.01829174045540476</v>
       </c>
       <c r="P12">
-        <v>0.03994818362678893</v>
+        <v>0.01829174045540476</v>
       </c>
       <c r="Q12">
-        <v>34.28760667758222</v>
+        <v>12.816967066228</v>
       </c>
       <c r="R12">
-        <v>308.58846009824</v>
+        <v>115.352703596052</v>
       </c>
       <c r="S12">
-        <v>0.008691381451495873</v>
+        <v>0.002442658954340735</v>
       </c>
       <c r="T12">
-        <v>0.008691381451495875</v>
+        <v>0.002442658954340736</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.712822</v>
+      </c>
+      <c r="H13">
+        <v>23.138466</v>
+      </c>
+      <c r="I13">
+        <v>0.1335389029981009</v>
+      </c>
+      <c r="J13">
+        <v>0.133538902998101</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>84.41561133333333</v>
+      </c>
+      <c r="N13">
+        <v>253.246834</v>
+      </c>
+      <c r="O13">
+        <v>0.92919281014967</v>
+      </c>
+      <c r="P13">
+        <v>0.9291928101496701</v>
+      </c>
+      <c r="Q13">
+        <v>651.0825842351827</v>
+      </c>
+      <c r="R13">
+        <v>5859.743258116644</v>
+      </c>
+      <c r="S13">
+        <v>0.1240833885411096</v>
+      </c>
+      <c r="T13">
+        <v>0.1240833885411096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>14.58505066666667</v>
-      </c>
-      <c r="H13">
-        <v>43.755152</v>
-      </c>
-      <c r="I13">
-        <v>0.2175663737979692</v>
-      </c>
-      <c r="J13">
-        <v>0.2175663737979692</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>54.02549366666667</v>
-      </c>
-      <c r="N13">
-        <v>162.076481</v>
-      </c>
-      <c r="O13">
-        <v>0.9180504584922721</v>
-      </c>
-      <c r="P13">
-        <v>0.9180504584922721</v>
-      </c>
-      <c r="Q13">
-        <v>787.9645624200125</v>
-      </c>
-      <c r="R13">
-        <v>7091.681061780112</v>
-      </c>
-      <c r="S13">
-        <v>0.1997369092177267</v>
-      </c>
-      <c r="T13">
-        <v>0.1997369092177267</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.150909</v>
+      </c>
+      <c r="I14">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J14">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.306835666666667</v>
+      </c>
+      <c r="N14">
+        <v>12.920507</v>
+      </c>
+      <c r="O14">
+        <v>0.0474068797554582</v>
+      </c>
+      <c r="P14">
+        <v>0.04740687975545821</v>
+      </c>
+      <c r="Q14">
+        <v>0.2166467545403333</v>
+      </c>
+      <c r="R14">
+        <v>1.949820790863</v>
+      </c>
+      <c r="S14">
+        <v>4.128856165209332E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.128856165209333E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.150909</v>
+      </c>
+      <c r="I15">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J15">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.464105</v>
+      </c>
+      <c r="N15">
+        <v>1.392315</v>
+      </c>
+      <c r="O15">
+        <v>0.005108569639466994</v>
+      </c>
+      <c r="P15">
+        <v>0.005108569639466995</v>
+      </c>
+      <c r="Q15">
+        <v>0.023345873815</v>
+      </c>
+      <c r="R15">
+        <v>0.210112864335</v>
+      </c>
+      <c r="S15">
+        <v>4.449259128657591E-06</v>
+      </c>
+      <c r="T15">
+        <v>4.449259128657592E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.150909</v>
+      </c>
+      <c r="I16">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J16">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.661774</v>
+      </c>
+      <c r="N16">
+        <v>4.985322</v>
+      </c>
+      <c r="O16">
+        <v>0.01829174045540476</v>
+      </c>
+      <c r="P16">
+        <v>0.01829174045540476</v>
+      </c>
+      <c r="Q16">
+        <v>0.083592217522</v>
+      </c>
+      <c r="R16">
+        <v>0.7523299576979999</v>
+      </c>
+      <c r="S16">
+        <v>1.593101375608071E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.593101375608072E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.150909</v>
+      </c>
+      <c r="I17">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J17">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>84.41561133333333</v>
+      </c>
+      <c r="N17">
+        <v>253.246834</v>
+      </c>
+      <c r="O17">
+        <v>0.92919281014967</v>
+      </c>
+      <c r="P17">
+        <v>0.9291928101496701</v>
+      </c>
+      <c r="Q17">
+        <v>4.246358496900666</v>
+      </c>
+      <c r="R17">
+        <v>38.21722647210599</v>
+      </c>
+      <c r="S17">
+        <v>0.0008092714565153242</v>
+      </c>
+      <c r="T17">
+        <v>0.0008092714565153244</v>
       </c>
     </row>
   </sheetData>
